--- a/data_science_project_checklist (3).xlsx
+++ b/data_science_project_checklist (3).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Partiran\Desktop\python\1404.05.26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Partiran\Desktop\python\1404.05.26\students_performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E22CB79-6FB4-4266-9E45-E3A84FDC1F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F887D72-3C4F-4C10-95B1-50563AF94946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="54">
   <si>
     <t>Step</t>
   </si>
@@ -133,16 +133,6 @@
   </si>
   <si>
     <t>Evaluate with MSE, RMSE, R² ,Accuracy</t>
-  </si>
-  <si>
-    <t>Documentation and presentation
-Drawing diagrams</t>
-  </si>
-  <si>
-    <t>Documentation and Presentation
-Draw comparison graphs
-Write a description of the EDA process and model results
-Prepare a clean and presentable notebook (very important for interviews) , Plot ,Correlation Matrix</t>
   </si>
   <si>
     <t>Split data into Train/Test (70/30)</t>
@@ -260,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -270,9 +260,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -620,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -738,13 +725,13 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -837,13 +824,13 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -871,10 +858,10 @@
     </row>
     <row r="22" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>34</v>
@@ -882,42 +869,42 @@
     </row>
     <row r="23" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="C25" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="5" t="s">
+      <c r="A26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -936,160 +923,149 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+      <c r="C34" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="C35" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+      <c r="C36" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="C37" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="C38" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="187.2" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="C40" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="187.2" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
